--- a/calc/doc/単体テストデータ.xlsx
+++ b/calc/doc/単体テストデータ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenmotsu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenmotsu\Desktop\Calculator\calc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="11340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="validateInputFormula" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>[IN]formula</t>
     <phoneticPr fontId="1"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1+1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -96,10 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラー：数式ではありません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラー：桁数が多すぎます。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,14 +109,6 @@
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11+</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1+1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -139,23 +123,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>[異常系]</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>[正常系]</t>
     <rPh sb="1" eb="3">
       <t>セイジョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[正常系]255桁</t>
+    <rPh sb="1" eb="3">
+      <t>セイジョウ</t>
+    </rPh>
     <rPh sb="3" eb="4">
       <t>ケイ</t>
     </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[異常系]256桁</t>
+    <rPh sb="8" eb="9">
+      <t>ケタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[異常系]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[異常系]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[正常系]</t>
+  </si>
+  <si>
+    <t>[正常系]255桁</t>
     <rPh sb="1" eb="3">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケイ</t>
-    </rPh>
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[正常系]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー：数式ではありません。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -163,7 +201,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[異常系]</t>
+    <t>1+2=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -171,6 +213,69 @@
     <rPh sb="1" eb="3">
       <t>セイジョウ</t>
     </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1+(2+3)-4)/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1+2*3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1+2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 234-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1+2+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー：数式ではありません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,*,+,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,+,4,+,+,5,/,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,/,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,3,/,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,+,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,4,-,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,+,4,-,+,5,/,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123+45</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -217,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +330,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -537,74 +648,128 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>19</v>
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -616,10 +781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -642,32 +807,61 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -690,13 +884,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>-233</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -707,10 +945,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -737,27 +975,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>1.2345678901234501E+254</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>1.23456789012345E+255</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
